--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/15/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.333099999999998</v>
+        <v>-7.409000000000003</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.044599999999998</v>
+        <v>5.750799999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>4.985499999999999</v>
+        <v>5.156700000000001</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.8161</v>
+        <v>4.944900000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.007999999999999</v>
+        <v>-8.015599999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.907499999999998</v>
+        <v>5.532299999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.42059999999999</v>
+        <v>-8.292099999999991</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.937799999999994</v>
+        <v>-7.742899999999995</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.327099999999998</v>
+        <v>-7.474999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.486600000000001</v>
+        <v>-7.383099999999998</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.463799999999999</v>
+        <v>-8.548699999999998</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.989100000000001</v>
+        <v>8.881</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.984599999999996</v>
+        <v>-7.982499999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.182299999999996</v>
+        <v>-8.199699999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.395899999999998</v>
+        <v>5.110999999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.613699999999996</v>
+        <v>4.649299999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.154199999999999</v>
+        <v>-7.112799999999994</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.220899999999998</v>
+        <v>-7.390699999999998</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.094000000000005</v>
+        <v>9.133100000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.661600000000004</v>
+        <v>9.691900000000002</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.5356</v>
+        <v>5.111200000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.596300000000001</v>
+        <v>5.687800000000003</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.839799999999999</v>
+        <v>-7.927999999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.455699999999991</v>
+        <v>-7.544399999999996</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.460100000000003</v>
+        <v>-7.375100000000002</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.544200000000004</v>
+        <v>-8.271600000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.7436</v>
+        <v>-7.842199999999998</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.802999999999998</v>
+        <v>-7.783199999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
